--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Egf-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Egf-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.088422</v>
+        <v>0.1904096666666667</v>
       </c>
       <c r="H2">
-        <v>0.265266</v>
+        <v>0.571229</v>
       </c>
       <c r="I2">
-        <v>0.05306498573333136</v>
+        <v>0.09975479936454949</v>
       </c>
       <c r="J2">
-        <v>0.05560514240556081</v>
+        <v>0.1077412252037539</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.517755</v>
+        <v>2.271905</v>
       </c>
       <c r="N2">
-        <v>7.553265</v>
+        <v>6.815715</v>
       </c>
       <c r="O2">
-        <v>0.2504376744648923</v>
+        <v>0.2806394474136332</v>
       </c>
       <c r="P2">
-        <v>0.2866298851167919</v>
+        <v>0.3070885820898414</v>
       </c>
       <c r="Q2">
-        <v>0.22262493261</v>
+        <v>0.4325926737483333</v>
       </c>
       <c r="R2">
-        <v>2.00362439349</v>
+        <v>3.893334063735</v>
       </c>
       <c r="S2">
-        <v>0.01328947162256819</v>
+        <v>0.02799513177052502</v>
       </c>
       <c r="T2">
-        <v>0.01593809557960875</v>
+        <v>0.03308610008044307</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.088422</v>
+        <v>0.1904096666666667</v>
       </c>
       <c r="H3">
-        <v>0.265266</v>
+        <v>0.571229</v>
       </c>
       <c r="I3">
-        <v>0.05306498573333136</v>
+        <v>0.09975479936454949</v>
       </c>
       <c r="J3">
-        <v>0.05560514240556081</v>
+        <v>0.1077412252037539</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.687724000000001</v>
+        <v>3.687724</v>
       </c>
       <c r="N3">
         <v>11.063172</v>
       </c>
       <c r="O3">
-        <v>0.3668129038085003</v>
+        <v>0.4555299739971492</v>
       </c>
       <c r="P3">
-        <v>0.4198231783721755</v>
+        <v>0.4984618345831706</v>
       </c>
       <c r="Q3">
-        <v>0.3260759315280001</v>
+        <v>0.7021782975986667</v>
       </c>
       <c r="R3">
-        <v>2.934683383752001</v>
+        <v>6.319604678388</v>
       </c>
       <c r="S3">
-        <v>0.01946492150739992</v>
+        <v>0.04544130116062407</v>
       </c>
       <c r="T3">
-        <v>0.02334432761853997</v>
+        <v>0.05370488877530171</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.088422</v>
+        <v>0.1904096666666667</v>
       </c>
       <c r="H4">
-        <v>0.265266</v>
+        <v>0.571229</v>
       </c>
       <c r="I4">
-        <v>0.05306498573333136</v>
+        <v>0.09975479936454949</v>
       </c>
       <c r="J4">
-        <v>0.05560514240556081</v>
+        <v>0.1077412252037539</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.7E-05</v>
+        <v>0.044076</v>
       </c>
       <c r="N4">
-        <v>0.000111</v>
+        <v>0.132228</v>
       </c>
       <c r="O4">
-        <v>3.680339808758603E-06</v>
+        <v>0.005444534117493161</v>
       </c>
       <c r="P4">
-        <v>4.212207204164545E-06</v>
+        <v>0.005957659472641616</v>
       </c>
       <c r="Q4">
-        <v>3.271614000000001E-06</v>
+        <v>0.008392496468000001</v>
       </c>
       <c r="R4">
-        <v>2.9444526E-05</v>
+        <v>0.07553246821200001</v>
       </c>
       <c r="S4">
-        <v>1.952971794455867E-07</v>
+        <v>0.0005431184085239748</v>
       </c>
       <c r="T4">
-        <v>2.342203814292987E-07</v>
+        <v>0.0006418855309291581</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.088422</v>
+        <v>0.1904096666666667</v>
       </c>
       <c r="H5">
-        <v>0.265266</v>
+        <v>0.571229</v>
       </c>
       <c r="I5">
-        <v>0.05306498573333136</v>
+        <v>0.09975479936454949</v>
       </c>
       <c r="J5">
-        <v>0.05560514240556081</v>
+        <v>0.1077412252037539</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,43 +744,43 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.8082785</v>
+        <v>2.0917535</v>
       </c>
       <c r="N5">
-        <v>7.616557</v>
+        <v>4.183507000000001</v>
       </c>
       <c r="O5">
-        <v>0.3788042963889053</v>
+        <v>0.2583860444717245</v>
       </c>
       <c r="P5">
-        <v>0.2890316780750441</v>
+        <v>0.1884919238543463</v>
       </c>
       <c r="Q5">
-        <v>0.336735601527</v>
+        <v>0.3982900866838334</v>
       </c>
       <c r="R5">
-        <v>2.020413609162</v>
+        <v>2.389740520103</v>
       </c>
       <c r="S5">
-        <v>0.02010124458360189</v>
+        <v>0.02577524802487644</v>
       </c>
       <c r="T5">
-        <v>0.01607164761908103</v>
+        <v>0.02030835081707997</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.088422</v>
+        <v>1.011337</v>
       </c>
       <c r="H6">
-        <v>0.265266</v>
+        <v>3.034011</v>
       </c>
       <c r="I6">
-        <v>0.05306498573333136</v>
+        <v>0.5298350724050007</v>
       </c>
       <c r="J6">
-        <v>0.05560514240556081</v>
+        <v>0.5722539689365677</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.039625</v>
+        <v>2.271905</v>
       </c>
       <c r="N6">
-        <v>0.118875</v>
+        <v>6.815715</v>
       </c>
       <c r="O6">
-        <v>0.003941444997893504</v>
+        <v>0.2806394474136332</v>
       </c>
       <c r="P6">
-        <v>0.004511046228784326</v>
+        <v>0.3070885820898414</v>
       </c>
       <c r="Q6">
-        <v>0.00350372175</v>
+        <v>2.297661586985</v>
       </c>
       <c r="R6">
-        <v>0.03153349575</v>
+        <v>20.678954282865</v>
       </c>
       <c r="S6">
-        <v>0.000209152722581929</v>
+        <v>0.1486926219401017</v>
       </c>
       <c r="T6">
-        <v>0.0002508373679496205</v>
+        <v>0.1757326599160147</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>3.034011</v>
       </c>
       <c r="I7">
-        <v>0.6069370007078572</v>
+        <v>0.5298350724050007</v>
       </c>
       <c r="J7">
-        <v>0.6359903406958977</v>
+        <v>0.5722539689365677</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.517755</v>
+        <v>3.687724</v>
       </c>
       <c r="N7">
-        <v>7.553265</v>
+        <v>11.063172</v>
       </c>
       <c r="O7">
-        <v>0.2504376744648923</v>
+        <v>0.4555299739971492</v>
       </c>
       <c r="P7">
-        <v>0.2866298851167919</v>
+        <v>0.4984618345831706</v>
       </c>
       <c r="Q7">
-        <v>2.546298788435</v>
+        <v>3.729531726988</v>
       </c>
       <c r="R7">
-        <v>22.916689095915</v>
+        <v>33.565785542892</v>
       </c>
       <c r="S7">
-        <v>0.1519998910039724</v>
+        <v>0.2413557567554276</v>
       </c>
       <c r="T7">
-        <v>0.1822938382890545</v>
+        <v>0.2852467632036222</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>3.034011</v>
       </c>
       <c r="I8">
-        <v>0.6069370007078572</v>
+        <v>0.5298350724050007</v>
       </c>
       <c r="J8">
-        <v>0.6359903406958977</v>
+        <v>0.5722539689365677</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.687724000000001</v>
+        <v>0.044076</v>
       </c>
       <c r="N8">
-        <v>11.063172</v>
+        <v>0.132228</v>
       </c>
       <c r="O8">
-        <v>0.3668129038085003</v>
+        <v>0.005444534117493161</v>
       </c>
       <c r="P8">
-        <v>0.4198231783721755</v>
+        <v>0.005957659472641616</v>
       </c>
       <c r="Q8">
-        <v>3.729531726988001</v>
+        <v>0.044575689612</v>
       </c>
       <c r="R8">
-        <v>33.56578554289201</v>
+        <v>0.401181206508</v>
       </c>
       <c r="S8">
-        <v>0.2226323236584709</v>
+        <v>0.002884705128353486</v>
       </c>
       <c r="T8">
-        <v>0.2670034862449545</v>
+        <v>0.003409294278791703</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>3.034011</v>
       </c>
       <c r="I9">
-        <v>0.6069370007078572</v>
+        <v>0.5298350724050007</v>
       </c>
       <c r="J9">
-        <v>0.6359903406958977</v>
+        <v>0.5722539689365677</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>3.7E-05</v>
+        <v>2.0917535</v>
       </c>
       <c r="N9">
-        <v>0.000111</v>
+        <v>4.183507000000001</v>
       </c>
       <c r="O9">
-        <v>3.680339808758603E-06</v>
+        <v>0.2583860444717245</v>
       </c>
       <c r="P9">
-        <v>4.212207204164545E-06</v>
+        <v>0.1884919238543463</v>
       </c>
       <c r="Q9">
-        <v>3.741946900000001E-05</v>
+        <v>2.1154677094295</v>
       </c>
       <c r="R9">
-        <v>0.0003367752210000001</v>
+        <v>12.692806256577</v>
       </c>
       <c r="S9">
-        <v>2.233734405113675E-06</v>
+        <v>0.1369019885811179</v>
       </c>
       <c r="T9">
-        <v>2.678923094858323E-06</v>
+        <v>0.107865251538139</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.011337</v>
+        <v>0.08741566666666667</v>
       </c>
       <c r="H10">
-        <v>3.034011</v>
+        <v>0.262247</v>
       </c>
       <c r="I10">
-        <v>0.6069370007078572</v>
+        <v>0.04579668901430952</v>
       </c>
       <c r="J10">
-        <v>0.6359903406958977</v>
+        <v>0.04946319792238989</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.8082785</v>
+        <v>2.271905</v>
       </c>
       <c r="N10">
-        <v>7.616557</v>
+        <v>6.815715</v>
       </c>
       <c r="O10">
-        <v>0.3788042963889053</v>
+        <v>0.2806394474136332</v>
       </c>
       <c r="P10">
-        <v>0.2890316780750441</v>
+        <v>0.3070885820898414</v>
       </c>
       <c r="Q10">
-        <v>3.851452953354501</v>
+        <v>0.1986000901783333</v>
       </c>
       <c r="R10">
-        <v>23.108717720127</v>
+        <v>1.787400811605</v>
       </c>
       <c r="S10">
-        <v>0.2299103435055324</v>
+        <v>0.01285235749834983</v>
       </c>
       <c r="T10">
-        <v>0.1838213554108543</v>
+        <v>0.0151895833156159</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.011337</v>
+        <v>0.08741566666666667</v>
       </c>
       <c r="H11">
-        <v>3.034011</v>
+        <v>0.262247</v>
       </c>
       <c r="I11">
-        <v>0.6069370007078572</v>
+        <v>0.04579668901430952</v>
       </c>
       <c r="J11">
-        <v>0.6359903406958977</v>
+        <v>0.04946319792238989</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.039625</v>
+        <v>3.687724</v>
       </c>
       <c r="N11">
-        <v>0.118875</v>
+        <v>11.063172</v>
       </c>
       <c r="O11">
-        <v>0.003941444997893504</v>
+        <v>0.4555299739971492</v>
       </c>
       <c r="P11">
-        <v>0.004511046228784326</v>
+        <v>0.4984618345831706</v>
       </c>
       <c r="Q11">
-        <v>0.04007422862500001</v>
+        <v>0.3223648519426667</v>
       </c>
       <c r="R11">
-        <v>0.360668057625</v>
+        <v>2.901283667484</v>
       </c>
       <c r="S11">
-        <v>0.00239220880547647</v>
+        <v>0.02086176455584394</v>
       </c>
       <c r="T11">
-        <v>0.002868981827939488</v>
+        <v>0.02465551638074493</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1361056666666667</v>
+        <v>0.08741566666666667</v>
       </c>
       <c r="H12">
-        <v>0.408317</v>
+        <v>0.262247</v>
       </c>
       <c r="I12">
-        <v>0.08168154147036057</v>
+        <v>0.04579668901430952</v>
       </c>
       <c r="J12">
-        <v>0.08559153804713523</v>
+        <v>0.04946319792238989</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.517755</v>
+        <v>0.044076</v>
       </c>
       <c r="N12">
-        <v>7.553265</v>
+        <v>0.132228</v>
       </c>
       <c r="O12">
-        <v>0.2504376744648923</v>
+        <v>0.005444534117493161</v>
       </c>
       <c r="P12">
-        <v>0.2866298851167919</v>
+        <v>0.005957659472641616</v>
       </c>
       <c r="Q12">
-        <v>0.3426807227783333</v>
+        <v>0.003852932924000001</v>
       </c>
       <c r="R12">
-        <v>3.084126505005</v>
+        <v>0.034676396316</v>
       </c>
       <c r="S12">
-        <v>0.02045613529254476</v>
+        <v>0.0002493416358066324</v>
       </c>
       <c r="T12">
-        <v>0.0245330927174199</v>
+        <v>0.0002946848896494732</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1361056666666667</v>
+        <v>0.08741566666666667</v>
       </c>
       <c r="H13">
-        <v>0.408317</v>
+        <v>0.262247</v>
       </c>
       <c r="I13">
-        <v>0.08168154147036057</v>
+        <v>0.04579668901430952</v>
       </c>
       <c r="J13">
-        <v>0.08559153804713523</v>
+        <v>0.04946319792238989</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.687724000000001</v>
+        <v>2.0917535</v>
       </c>
       <c r="N13">
-        <v>11.063172</v>
+        <v>4.183507000000001</v>
       </c>
       <c r="O13">
-        <v>0.3668129038085003</v>
+        <v>0.2583860444717245</v>
       </c>
       <c r="P13">
-        <v>0.4198231783721755</v>
+        <v>0.1884919238543463</v>
       </c>
       <c r="Q13">
-        <v>0.5019201335026668</v>
+        <v>0.1828520267048334</v>
       </c>
       <c r="R13">
-        <v>4.517281201524001</v>
+        <v>1.097112160229</v>
       </c>
       <c r="S13">
-        <v>0.0299618434142974</v>
+        <v>0.01183322532430912</v>
       </c>
       <c r="T13">
-        <v>0.0359333115447113</v>
+        <v>0.009323413336379578</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1361056666666667</v>
+        <v>0.42447</v>
       </c>
       <c r="H14">
-        <v>0.408317</v>
+        <v>0.84894</v>
       </c>
       <c r="I14">
-        <v>0.08168154147036057</v>
+        <v>0.2223779938672774</v>
       </c>
       <c r="J14">
-        <v>0.08559153804713523</v>
+        <v>0.1601211348241683</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>3.7E-05</v>
+        <v>2.271905</v>
       </c>
       <c r="N14">
-        <v>0.000111</v>
+        <v>6.815715</v>
       </c>
       <c r="O14">
-        <v>3.680339808758603E-06</v>
+        <v>0.2806394474136332</v>
       </c>
       <c r="P14">
-        <v>4.212207204164545E-06</v>
+        <v>0.3070885820898414</v>
       </c>
       <c r="Q14">
-        <v>5.035909666666668E-06</v>
+        <v>0.96435551535</v>
       </c>
       <c r="R14">
-        <v>4.532318700000001E-05</v>
+        <v>5.7861330921</v>
       </c>
       <c r="S14">
-        <v>3.006158287141347E-07</v>
+        <v>0.06240803731586504</v>
       </c>
       <c r="T14">
-        <v>3.605292931776668E-07</v>
+        <v>0.04917137225577017</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,117 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1361056666666667</v>
+        <v>0.42447</v>
       </c>
       <c r="H15">
-        <v>0.408317</v>
+        <v>0.84894</v>
       </c>
       <c r="I15">
-        <v>0.08168154147036057</v>
+        <v>0.2223779938672774</v>
       </c>
       <c r="J15">
-        <v>0.08559153804713523</v>
+        <v>0.1601211348241683</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.8082785</v>
+        <v>3.687724</v>
       </c>
       <c r="N15">
-        <v>7.616557</v>
+        <v>11.063172</v>
       </c>
       <c r="O15">
-        <v>0.3788042963889053</v>
+        <v>0.4555299739971492</v>
       </c>
       <c r="P15">
-        <v>0.2890316780750441</v>
+        <v>0.4984618345831706</v>
       </c>
       <c r="Q15">
-        <v>0.5183282840948334</v>
+        <v>1.56532820628</v>
       </c>
       <c r="R15">
-        <v>3.109969704569</v>
+        <v>9.39196923768</v>
       </c>
       <c r="S15">
-        <v>0.03094131884464113</v>
+        <v>0.1012998417638991</v>
       </c>
       <c r="T15">
-        <v>0.02473866587078748</v>
+        <v>0.07981427461999416</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1361056666666667</v>
+        <v>0.42447</v>
       </c>
       <c r="H16">
-        <v>0.408317</v>
+        <v>0.84894</v>
       </c>
       <c r="I16">
-        <v>0.08168154147036057</v>
+        <v>0.2223779938672774</v>
       </c>
       <c r="J16">
-        <v>0.08559153804713523</v>
+        <v>0.1601211348241683</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.039625</v>
+        <v>0.044076</v>
       </c>
       <c r="N16">
-        <v>0.118875</v>
+        <v>0.132228</v>
       </c>
       <c r="O16">
-        <v>0.003941444997893504</v>
+        <v>0.005444534117493161</v>
       </c>
       <c r="P16">
-        <v>0.004511046228784326</v>
+        <v>0.005957659472641616</v>
       </c>
       <c r="Q16">
-        <v>0.005393187041666667</v>
+        <v>0.01870893972</v>
       </c>
       <c r="R16">
-        <v>0.048538683375</v>
+        <v>0.11225363832</v>
       </c>
       <c r="S16">
-        <v>0.0003219433030485835</v>
+        <v>0.001210744574590076</v>
       </c>
       <c r="T16">
-        <v>0.0003861073849233796</v>
+        <v>0.0009539471956553318</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2283595</v>
+        <v>0.42447</v>
       </c>
       <c r="H17">
-        <v>0.456719</v>
+        <v>0.84894</v>
       </c>
       <c r="I17">
-        <v>0.1370461379472381</v>
+        <v>0.2223779938672774</v>
       </c>
       <c r="J17">
-        <v>0.09573758052040339</v>
+        <v>0.1601211348241683</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.517755</v>
+        <v>2.0917535</v>
       </c>
       <c r="N17">
-        <v>7.553265</v>
+        <v>4.183507000000001</v>
       </c>
       <c r="O17">
-        <v>0.2504376744648923</v>
+        <v>0.2583860444717245</v>
       </c>
       <c r="P17">
-        <v>0.2866298851167919</v>
+        <v>0.1884919238543463</v>
       </c>
       <c r="Q17">
-        <v>0.5749532729224999</v>
+        <v>0.8878866081450001</v>
       </c>
       <c r="R17">
-        <v>3.449719637535</v>
+        <v>3.55154643258</v>
       </c>
       <c r="S17">
-        <v>0.03432151608190113</v>
+        <v>0.05745937021292321</v>
       </c>
       <c r="T17">
-        <v>0.02744125170592284</v>
+        <v>0.03018154075274867</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,25 +1523,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2283595</v>
+        <v>0.1951446666666667</v>
       </c>
       <c r="H18">
-        <v>0.456719</v>
+        <v>0.585434</v>
       </c>
       <c r="I18">
-        <v>0.1370461379472381</v>
+        <v>0.102235445348863</v>
       </c>
       <c r="J18">
-        <v>0.09573758052040339</v>
+        <v>0.1104204731131201</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.687724000000001</v>
+        <v>2.271905</v>
       </c>
       <c r="N18">
-        <v>11.063172</v>
+        <v>6.815715</v>
       </c>
       <c r="O18">
-        <v>0.3668129038085003</v>
+        <v>0.2806394474136332</v>
       </c>
       <c r="P18">
-        <v>0.4198231783721755</v>
+        <v>0.3070885820898414</v>
       </c>
       <c r="Q18">
-        <v>0.8421268087780002</v>
+        <v>0.4433501439233333</v>
       </c>
       <c r="R18">
-        <v>5.052760852668</v>
+        <v>3.99015129531</v>
       </c>
       <c r="S18">
-        <v>0.05027029181616669</v>
+        <v>0.02869129888879162</v>
       </c>
       <c r="T18">
-        <v>0.04019285534373782</v>
+        <v>0.0339088665219975</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2283595</v>
+        <v>0.1951446666666667</v>
       </c>
       <c r="H19">
-        <v>0.456719</v>
+        <v>0.585434</v>
       </c>
       <c r="I19">
-        <v>0.1370461379472381</v>
+        <v>0.102235445348863</v>
       </c>
       <c r="J19">
-        <v>0.09573758052040339</v>
+        <v>0.1104204731131201</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>3.7E-05</v>
+        <v>3.687724</v>
       </c>
       <c r="N19">
-        <v>0.000111</v>
+        <v>11.063172</v>
       </c>
       <c r="O19">
-        <v>3.680339808758603E-06</v>
+        <v>0.4555299739971492</v>
       </c>
       <c r="P19">
-        <v>4.212207204164545E-06</v>
+        <v>0.4984618345831706</v>
       </c>
       <c r="Q19">
-        <v>8.449301500000001E-06</v>
+        <v>0.7196396707386666</v>
       </c>
       <c r="R19">
-        <v>5.069580900000001E-05</v>
+        <v>6.476757036648</v>
       </c>
       <c r="S19">
-        <v>5.043763571238432E-07</v>
+        <v>0.04657130976135453</v>
       </c>
       <c r="T19">
-        <v>4.032665263773264E-07</v>
+        <v>0.05504039160350749</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,427 +1647,117 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.2283595</v>
+        <v>0.1951446666666667</v>
       </c>
       <c r="H20">
-        <v>0.456719</v>
+        <v>0.585434</v>
       </c>
       <c r="I20">
-        <v>0.1370461379472381</v>
+        <v>0.102235445348863</v>
       </c>
       <c r="J20">
-        <v>0.09573758052040339</v>
+        <v>0.1104204731131201</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>3.8082785</v>
+        <v>0.044076</v>
       </c>
       <c r="N20">
-        <v>7.616557</v>
+        <v>0.132228</v>
       </c>
       <c r="O20">
-        <v>0.3788042963889053</v>
+        <v>0.005444534117493161</v>
       </c>
       <c r="P20">
-        <v>0.2890316780750441</v>
+        <v>0.005957659472641616</v>
       </c>
       <c r="Q20">
-        <v>0.86965657412075</v>
+        <v>0.008601196328000001</v>
       </c>
       <c r="R20">
-        <v>3.478626296483</v>
+        <v>0.07741076695200001</v>
       </c>
       <c r="S20">
-        <v>0.05191366585792037</v>
+        <v>0.0005566243702189922</v>
       </c>
       <c r="T20">
-        <v>0.02767119355265684</v>
+        <v>0.0006578475776159486</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.2283595</v>
+        <v>0.1951446666666667</v>
       </c>
       <c r="H21">
-        <v>0.456719</v>
+        <v>0.585434</v>
       </c>
       <c r="I21">
-        <v>0.1370461379472381</v>
+        <v>0.102235445348863</v>
       </c>
       <c r="J21">
-        <v>0.09573758052040339</v>
+        <v>0.1104204731131201</v>
       </c>
       <c r="K21">
         <v>2</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.039625</v>
+        <v>2.0917535</v>
       </c>
       <c r="N21">
-        <v>0.118875</v>
+        <v>4.183507000000001</v>
       </c>
       <c r="O21">
-        <v>0.003941444997893504</v>
+        <v>0.2583860444717245</v>
       </c>
       <c r="P21">
-        <v>0.004511046228784326</v>
+        <v>0.1884919238543463</v>
       </c>
       <c r="Q21">
-        <v>0.0090487451875</v>
+        <v>0.4081945395063334</v>
       </c>
       <c r="R21">
-        <v>0.054292471125</v>
+        <v>2.449167237038</v>
       </c>
       <c r="S21">
-        <v>0.0005401598148927645</v>
+        <v>0.02641621232849788</v>
       </c>
       <c r="T21">
-        <v>0.0004318766515595015</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.2020723333333333</v>
-      </c>
-      <c r="H22">
-        <v>0.606217</v>
-      </c>
-      <c r="I22">
-        <v>0.1212703341412127</v>
-      </c>
-      <c r="J22">
-        <v>0.1270753983310031</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>2.517755</v>
-      </c>
-      <c r="N22">
-        <v>7.553265</v>
-      </c>
-      <c r="O22">
-        <v>0.2504376744648923</v>
-      </c>
-      <c r="P22">
-        <v>0.2866298851167919</v>
-      </c>
-      <c r="Q22">
-        <v>0.5087686276116666</v>
-      </c>
-      <c r="R22">
-        <v>4.578917648505</v>
-      </c>
-      <c r="S22">
-        <v>0.03037066046390575</v>
-      </c>
-      <c r="T22">
-        <v>0.03642360682478598</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.2020723333333333</v>
-      </c>
-      <c r="H23">
-        <v>0.606217</v>
-      </c>
-      <c r="I23">
-        <v>0.1212703341412127</v>
-      </c>
-      <c r="J23">
-        <v>0.1270753983310031</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>3.687724000000001</v>
-      </c>
-      <c r="N23">
-        <v>11.063172</v>
-      </c>
-      <c r="O23">
-        <v>0.3668129038085003</v>
-      </c>
-      <c r="P23">
-        <v>0.4198231783721755</v>
-      </c>
-      <c r="Q23">
-        <v>0.7451869933693335</v>
-      </c>
-      <c r="R23">
-        <v>6.706682940324001</v>
-      </c>
-      <c r="S23">
-        <v>0.04448352341216536</v>
-      </c>
-      <c r="T23">
-        <v>0.05334919762023195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.2020723333333333</v>
-      </c>
-      <c r="H24">
-        <v>0.606217</v>
-      </c>
-      <c r="I24">
-        <v>0.1212703341412127</v>
-      </c>
-      <c r="J24">
-        <v>0.1270753983310031</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>3.7E-05</v>
-      </c>
-      <c r="N24">
-        <v>0.000111</v>
-      </c>
-      <c r="O24">
-        <v>3.680339808758603E-06</v>
-      </c>
-      <c r="P24">
-        <v>4.212207204164545E-06</v>
-      </c>
-      <c r="Q24">
-        <v>7.476676333333334E-06</v>
-      </c>
-      <c r="R24">
-        <v>6.729008700000001E-05</v>
-      </c>
-      <c r="S24">
-        <v>4.463160383613627E-07</v>
-      </c>
-      <c r="T24">
-        <v>5.352679083219303E-07</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.2020723333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.606217</v>
-      </c>
-      <c r="I25">
-        <v>0.1212703341412127</v>
-      </c>
-      <c r="J25">
-        <v>0.1270753983310031</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>3.8082785</v>
-      </c>
-      <c r="N25">
-        <v>7.616557</v>
-      </c>
-      <c r="O25">
-        <v>0.3788042963889053</v>
-      </c>
-      <c r="P25">
-        <v>0.2890316780750441</v>
-      </c>
-      <c r="Q25">
-        <v>0.7695477224781667</v>
-      </c>
-      <c r="R25">
-        <v>4.617286334869</v>
-      </c>
-      <c r="S25">
-        <v>0.04593772359720954</v>
-      </c>
-      <c r="T25">
-        <v>0.03672881562166447</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.2020723333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.606217</v>
-      </c>
-      <c r="I26">
-        <v>0.1212703341412127</v>
-      </c>
-      <c r="J26">
-        <v>0.1270753983310031</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.039625</v>
-      </c>
-      <c r="N26">
-        <v>0.118875</v>
-      </c>
-      <c r="O26">
-        <v>0.003941444997893504</v>
-      </c>
-      <c r="P26">
-        <v>0.004511046228784326</v>
-      </c>
-      <c r="Q26">
-        <v>0.008007116208333333</v>
-      </c>
-      <c r="R26">
-        <v>0.072064045875</v>
-      </c>
-      <c r="S26">
-        <v>0.0004779803518937567</v>
-      </c>
-      <c r="T26">
-        <v>0.0005732429964123374</v>
+        <v>0.02081336740999913</v>
       </c>
     </row>
   </sheetData>
